--- a/predicciones_futuras_2026.xlsx
+++ b/predicciones_futuras_2026.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pilototebsa-my.sharepoint.com/personal/jblanquicet_tebsa_com_co/Documents/Documentos/Analisis de Mercado/ProyectaGas/Códigos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pilototebsa-my.sharepoint.com/personal/jblanquicet_tebsa_com_co/Documents/Documentos/Analisis de Mercado/ProyectaGas/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_582D20C7506B62DEE54878D6425DCE3A874641E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6B4D7E5-F9FF-4BD3-B55B-FB114AA34696}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_582D20C7506B62DEE54878D6425DCE3A874641E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29EB64A9-B3C4-44A0-82BD-2F4A48BB92F7}"/>
   <bookViews>
-    <workbookView xWindow="-14520" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14280" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -53,6 +53,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,7 +96,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,6 +112,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,11 +405,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="24.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
